--- a/dd.xlsx
+++ b/dd.xlsx
@@ -736,13 +736,13 @@
         <v>43786000</v>
       </c>
       <c r="E8" t="n">
-        <v>44766000</v>
+        <v>44689000</v>
       </c>
       <c r="F8" t="n">
-        <v>5858.51571845</v>
+        <v>5882.21583454</v>
       </c>
       <c r="G8" t="n">
-        <v>261965033527.9688</v>
+        <v>263024748469.8399</v>
       </c>
       <c r="H8" t="n">
         <v>932000</v>
